--- a/data/trans_bre/P1805_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4656497119222422</v>
+        <v>0.5044956553642458</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.207728605189922</v>
+        <v>-1.237016529361234</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.112173768623293</v>
+        <v>0.1340023602719486</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3383190724902159</v>
+        <v>-0.3342907987349783</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.918042549317081</v>
+        <v>3.861443220918024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.285990541534965</v>
+        <v>2.026445894590513</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.742699541525541</v>
+        <v>2.839762032916142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.484164331412486</v>
+        <v>1.490962119015088</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8747008894235563</v>
+        <v>0.9388386549994918</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6716892424074058</v>
+        <v>-0.7298437478781175</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3377533320489809</v>
+        <v>0.3939006693873046</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.161254996586587</v>
+        <v>-0.1859248491908384</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.020553519281772</v>
+        <v>3.099343793538555</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.918731844222759</v>
+        <v>1.742843075119112</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.124048349769597</v>
+        <v>2.204708506373532</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7212409593721906</v>
+        <v>0.636639651705582</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5399258031059423</v>
+        <v>-0.5217894796626342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1556342422679015</v>
+        <v>-0.1978538211041858</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.317427397141353</v>
+        <v>-0.2721603874284647</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.05642645955506326</v>
+        <v>-0.05179013424598553</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.911036872130946</v>
+        <v>2.907943069122516</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.761919910799132</v>
+        <v>4.440685997041456</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>3.269945273454114</v>
+        <v>3.391606367250585</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.804369551236924</v>
+        <v>1.662634342515649</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.17132584666256</v>
+        <v>1.066134578957179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.08713917792187945</v>
+        <v>-0.07754608612443598</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5277685484216076</v>
+        <v>0.4753639774024221</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02747469142671894</v>
+        <v>-0.01979464697148938</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.801530129489692</v>
+        <v>2.741811889380029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.853162015062694</v>
+        <v>1.837815852916666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.920497156687285</v>
+        <v>1.864105094806872</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6793047123973427</v>
+        <v>0.6502701795780957</v>
       </c>
     </row>
     <row r="16">
